--- a/MIT PhD/Designs/Dove prism optics/Dove_prism_beam_movement_analysis.xlsx
+++ b/MIT PhD/Designs/Dove prism optics/Dove_prism_beam_movement_analysis.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buiqu\Documents\GitHub\huanium\MIT PhD\Designs\Dove prism optics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ADC5BD-B578-4AD0-AEBD-41DB46245C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D4EC4-083E-4E67-9129-76976C08FBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="11475" activeTab="1" xr2:uid="{D9EC8262-311F-4427-A3D1-3D77A0DAEAF4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="11475" activeTab="2" xr2:uid="{D9EC8262-311F-4427-A3D1-3D77A0DAEAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="First-order" sheetId="1" r:id="rId1"/>
     <sheet name="Zeroth-order" sheetId="2" r:id="rId2"/>
+    <sheet name="0th-jul13-2021" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>x0</t>
   </si>
@@ -78,6 +80,42 @@
   <si>
     <t>deltaY4</t>
   </si>
+  <si>
+    <t>mvt 0th order (degs)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>probably bumped due to first mvt</t>
+  </si>
+  <si>
+    <t>pert0</t>
+  </si>
+  <si>
+    <t>pert2</t>
+  </si>
+  <si>
+    <t>pert3</t>
+  </si>
+  <si>
+    <t>pert4</t>
+  </si>
+  <si>
+    <t>pert5</t>
+  </si>
+  <si>
+    <t>pert6</t>
+  </si>
+  <si>
+    <t>pert7</t>
+  </si>
 </sst>
 </file>
 
@@ -92,12 +130,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -112,8 +156,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +598,7 @@
         <v>1500.7</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D17" si="2">ABS(B4-B5)</f>
+        <f t="shared" ref="D4:D16" si="2">ABS(B4-B5)</f>
         <v>32.400000000000091</v>
       </c>
       <c r="E4">
@@ -868,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE63B67-C7CF-49DB-B3A8-24462C38A14A}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -988,7 +1033,7 @@
         <v>1048.3</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D17" si="2">ABS(B4-B5)</f>
+        <f t="shared" ref="D4:D16" si="2">ABS(B4-B5)</f>
         <v>1.5699999999999932</v>
       </c>
       <c r="E4">
@@ -1185,7 +1230,7 @@
         <v>1.9442526031077927E-2</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I24" si="3">ABS(B3-B5)</f>
+        <f t="shared" ref="I11:I23" si="3">ABS(B3-B5)</f>
         <v>3.8100000000000023</v>
       </c>
       <c r="J11">
@@ -1492,4 +1537,1379 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA2CC2A-5AA4-4E77-BF66-840D7EB86E57}">
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.1328125" customWidth="1"/>
+    <col min="9" max="9" width="3.3984375" customWidth="1"/>
+    <col min="10" max="10" width="6.19921875" customWidth="1"/>
+    <col min="11" max="11" width="2.73046875" customWidth="1"/>
+    <col min="12" max="12" width="5.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>393.02</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1011.7</v>
+      </c>
+      <c r="D2" s="1">
+        <f>ABS(B3-B2)</f>
+        <v>4.5999999999999659</v>
+      </c>
+      <c r="E2" s="1">
+        <f>ABS(C3-C2)</f>
+        <v>20.540000000000077</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SQRT(($L$2*D2/$J$2)^2+($L$3*E2/$J$3)^2)</f>
+        <v>4.6771215773878203E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <f>2592</f>
+        <v>2592</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <f>5.75</f>
+        <v>5.75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>388.42</v>
+      </c>
+      <c r="C3">
+        <v>991.16</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D47" si="0">ABS(B4-B3)</f>
+        <v>1.1399999999999864</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E47" si="1">ABS(C4-C3)</f>
+        <v>1.9199999999999591</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F46" si="2">SQRT(($L$2*D3/$J$2)^2+($L$3*E3/$J$3)^2)</f>
+        <v>4.9598344342640247E-3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <f>1944</f>
+        <v>1944</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <f>4.32</f>
+        <v>4.32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>389.56</v>
+      </c>
+      <c r="C4">
+        <v>989.24</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.75999999999999091</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2.0199999999999818</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>4.7950572212386664E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>390.32</v>
+      </c>
+      <c r="C5">
+        <v>987.22</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.91000000000002501</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>2.188214389861015E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>391.23</v>
+      </c>
+      <c r="C6">
+        <v>986.84</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.78999999999996362</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2.4800000000000182</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>5.7830466861184112E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>392.02</v>
+      </c>
+      <c r="C7">
+        <v>984.36</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.3799999999999955</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.9900000000000091</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>5.3784633355576294E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>393.4</v>
+      </c>
+      <c r="C8">
+        <v>986.35</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.86000000000001364</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.38999999999998636</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>2.0954202544506955E-3</v>
+      </c>
+      <c r="H8">
+        <f>ABS(B47-B3)</f>
+        <v>28.939999999999998</v>
+      </c>
+      <c r="I8">
+        <f>ABS(C47-C3)</f>
+        <v>22.139999999999986</v>
+      </c>
+      <c r="J8">
+        <f>SQRT(($L$2*H8/$J$2)^2+($L$3*I8/$J$3)^2)</f>
+        <v>8.0883933190961224E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>394.26</v>
+      </c>
+      <c r="C9">
+        <v>986.74</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.2699999999999818</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3.4399999999990314</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>8.1470753713881548E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>395.53</v>
+      </c>
+      <c r="C10">
+        <v>990.17999999999904</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.99000000000091859</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>3.1242822716418786E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>396.53</v>
+      </c>
+      <c r="C11">
+        <v>991.17</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.6300000000000523</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.80000000000006821</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>4.0293262377636653E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>398.16</v>
+      </c>
+      <c r="C12">
+        <v>991.97</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.6199999999999477</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.52999999999997272</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1.8107585701744912E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>398.78</v>
+      </c>
+      <c r="C13">
+        <v>991.44</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>3.0429128802312677E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>399.34</v>
+      </c>
+      <c r="C14">
+        <v>990.19</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.07000000000005</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2.6303340665643537E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>400.41</v>
+      </c>
+      <c r="C15">
+        <v>990.7</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.0499999999999545</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.17999999999994998</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>2.3633782036434812E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>401.46</v>
+      </c>
+      <c r="C16">
+        <v>990.88</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.99000000000000909</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.6599999999999682</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>4.2931468955962572E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>402.45</v>
+      </c>
+      <c r="C17">
+        <v>992.54</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.72000000000002728</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.0900000000000318</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2.9014271179866281E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>403.17</v>
+      </c>
+      <c r="C18">
+        <v>993.63</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.45000000000004547</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1.0119849725135955E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>403.24</v>
+      </c>
+      <c r="C19">
+        <v>994.08</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.5199999999999818</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>3.672678075293779E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>403.89</v>
+      </c>
+      <c r="C20">
+        <v>995.6</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.97000000000002728</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.7099999999990132</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>2.6682734252504695E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>404.86</v>
+      </c>
+      <c r="C21">
+        <v>996.30999999999904</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999545</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>3.8995671620413513E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>404.99</v>
+      </c>
+      <c r="C22">
+        <v>998.05999999999904</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0.7800000000009959</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1.7402752739280234E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>405.06</v>
+      </c>
+      <c r="C23">
+        <v>998.84</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.5599999999999454</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>3.4949425412004113E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>405.26</v>
+      </c>
+      <c r="C24">
+        <v>1000.4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.28000000000002956</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000682</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>2.954910551241266E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>405.54</v>
+      </c>
+      <c r="C25">
+        <v>1001.7</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0.69999999999993179</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1.5555555555554041E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>405.54</v>
+      </c>
+      <c r="C26">
+        <v>1002.4</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.15999999999996817</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0.70000000000004547</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1.5955357291737213E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>405.7</v>
+      </c>
+      <c r="C27">
+        <v>1003.1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0.79999999999995453</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>2.1688160920468645E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>406.26</v>
+      </c>
+      <c r="C28">
+        <v>1003.9</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.84000000000003183</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000682</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>3.437736929108991E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>407.1</v>
+      </c>
+      <c r="C29">
+        <v>1005.2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.68000000000000682</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0.30000000000006821</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>1.6492360193991421E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>406.42</v>
+      </c>
+      <c r="C30">
+        <v>1004.9</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.84999999999996589</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>2.9144116125727104E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>407.27</v>
+      </c>
+      <c r="C31">
+        <v>1005.9</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0.70000000000004547</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>1.5781690334959822E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>407.39</v>
+      </c>
+      <c r="C32">
+        <v>1006.6</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.67000000000001592</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>1.7318265138012534E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>408.06</v>
+      </c>
+      <c r="C33">
+        <v>1007</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0.20000000000004547</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>4.4444444444454551E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>408.06</v>
+      </c>
+      <c r="C34">
+        <v>1007.2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0.59999999999990905</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>1.3379389474334998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>66</v>
+      </c>
+      <c r="B35">
+        <v>408.11</v>
+      </c>
+      <c r="C35">
+        <v>1007.8</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0.10000000000002274</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>1.7885502878859788E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>68</v>
+      </c>
+      <c r="B36">
+        <v>408.91</v>
+      </c>
+      <c r="C36">
+        <v>1007.9</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.68999999999999773</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>1.7700503027019889E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>70</v>
+      </c>
+      <c r="B37">
+        <v>409.6</v>
+      </c>
+      <c r="C37">
+        <v>1008.3</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.72999999999996135</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>1.6194058641974451E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>72</v>
+      </c>
+      <c r="B38">
+        <v>410.33</v>
+      </c>
+      <c r="C38">
+        <v>1008.3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>2.6812584645699096E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>74</v>
+      </c>
+      <c r="B39">
+        <v>411.43</v>
+      </c>
+      <c r="C39">
+        <v>1008.8</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.17000000000001592</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0.30000000000006821</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>7.6594084768152979E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>76</v>
+      </c>
+      <c r="B40">
+        <v>411.6</v>
+      </c>
+      <c r="C40">
+        <v>1009.1</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.52999999999997272</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999545</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>3.1189785439619242E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>78</v>
+      </c>
+      <c r="B41">
+        <v>412.13</v>
+      </c>
+      <c r="C41">
+        <v>1010.4</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>1.2699999999999818</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>3.7299617806205972E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>80</v>
+      </c>
+      <c r="B42">
+        <v>413.4</v>
+      </c>
+      <c r="C42">
+        <v>1011.5</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0.29999999999995453</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>1.2941133538705173E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>82</v>
+      </c>
+      <c r="B43">
+        <v>412.9</v>
+      </c>
+      <c r="C43">
+        <v>1011.8</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1.3300000000000409</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0.40000000000009095</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>3.0814164754080875E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>84</v>
+      </c>
+      <c r="B44">
+        <v>414.23</v>
+      </c>
+      <c r="C44">
+        <v>1012.2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.45999999999997954</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>1.3533058117206097E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>86</v>
+      </c>
+      <c r="B45">
+        <v>414.69</v>
+      </c>
+      <c r="C45">
+        <v>1012.6</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.20999999999997954</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>1.0035664991062112E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>88</v>
+      </c>
+      <c r="B46">
+        <v>414.9</v>
+      </c>
+      <c r="C46">
+        <v>1013</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>2.4600000000000364</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0.29999999999995453</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>5.497746222858116E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>90</v>
+      </c>
+      <c r="B47">
+        <v>417.36</v>
+      </c>
+      <c r="C47">
+        <v>1013.3</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <f>AVERAGE(F3:F46)</f>
+        <v>2.7978017106719214E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <f>_xlfn.STDEV.S(F3:F46)</f>
+        <v>1.559550513787765E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03009A6-B3DF-455A-8A32-BB474EC13493}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>381.16</v>
+      </c>
+      <c r="C2">
+        <v>1006.4</v>
+      </c>
+      <c r="D2">
+        <f>ABS(B3-B2)</f>
+        <v>7.7999999999999545</v>
+      </c>
+      <c r="E2">
+        <f>ABS(C3-C2)</f>
+        <v>6.8000000000000682</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F7" si="0">SQRT(($L$2*D2/$J$2)^2+($L$3*E2/$J$3)^2)</f>
+        <v>2.2972762549253341E-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <f>2592</f>
+        <v>2592</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <f>5.75</f>
+        <v>5.75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>388.96</v>
+      </c>
+      <c r="C3">
+        <v>1013.2</v>
+      </c>
+      <c r="D3">
+        <f>ABS(B4-B3)</f>
+        <v>20.239999999999952</v>
+      </c>
+      <c r="E3">
+        <f>ABS(C4-C3)</f>
+        <v>19.970000000000027</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>6.3129782547856922E-2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <f>1944</f>
+        <v>1944</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <f>4.32</f>
+        <v>4.32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>368.72</v>
+      </c>
+      <c r="C4">
+        <v>993.23</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="1">ABS(B5-B4)</f>
+        <v>29.909999999999968</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E7" si="2">ABS(C5-C4)</f>
+        <v>38.470000000000027</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.108216641843281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>398.63</v>
+      </c>
+      <c r="C5">
+        <v>1031.7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>22.53000000000003</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5.3430001597827563E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>421.16</v>
+      </c>
+      <c r="C6">
+        <v>1023.2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.61000000000001364</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.59999999999990905</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.899719417425237E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>420.55</v>
+      </c>
+      <c r="C7">
+        <v>1023.8</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.72000000000002728</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.6126070641076767E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>419.83</v>
+      </c>
+      <c r="C8">
+        <v>1023.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MIT PhD/Designs/Dove prism optics/Dove_prism_beam_movement_analysis.xlsx
+++ b/MIT PhD/Designs/Dove prism optics/Dove_prism_beam_movement_analysis.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buiqu\Documents\GitHub\huanium\MIT PhD\Designs\Dove prism optics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D4EC4-083E-4E67-9129-76976C08FBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769EA22B-F579-45B3-B087-190CBAE265CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="11475" activeTab="2" xr2:uid="{D9EC8262-311F-4427-A3D1-3D77A0DAEAF4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="11475" activeTab="4" xr2:uid="{D9EC8262-311F-4427-A3D1-3D77A0DAEAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="First-order" sheetId="1" r:id="rId1"/>
     <sheet name="Zeroth-order" sheetId="2" r:id="rId2"/>
     <sheet name="0th-jul13-2021" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="perts" sheetId="4" r:id="rId4"/>
+    <sheet name="0th-jul19-2021" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>x0</t>
   </si>
@@ -115,6 +116,9 @@
   </si>
   <si>
     <t>pert7</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -1543,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA2CC2A-5AA4-4E77-BF66-840D7EB86E57}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1635,11 +1639,11 @@
         <v>991.16</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D47" si="0">ABS(B4-B3)</f>
+        <f t="shared" ref="D3:D46" si="0">ABS(B4-B3)</f>
         <v>1.1399999999999864</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E47" si="1">ABS(C4-C3)</f>
+        <f t="shared" ref="E3:E46" si="1">ABS(C4-C3)</f>
         <v>1.9199999999999591</v>
       </c>
       <c r="F3">
@@ -2912,4 +2916,1117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2ECDA3-94D6-40DC-A0AA-04E1C33FCB21}">
+  <dimension ref="A1:M48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1481.9</v>
+      </c>
+      <c r="C1">
+        <v>1006.3</v>
+      </c>
+      <c r="D1">
+        <f>ABS(B2-B1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="D1:E44" si="0">ABS(C2-C1)</f>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ref="F1:F44" si="1">SQRT(($L$2*D1/$J$2)^2+($L$3*E1/$J$3)^2)</f>
+        <v>1.0277567213496213E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1477.4</v>
+      </c>
+      <c r="C2">
+        <v>1007.4</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>3.6000000000001364</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000455</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="1"/>
+        <v>1.1462238391807412E-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <f>2592</f>
+        <v>2592</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <f>5.75</f>
+        <v>5.75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1473.8</v>
+      </c>
+      <c r="C3">
+        <v>1011.1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>2.8999999999998636</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999545</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>8.2164616335437327E-3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <f>1944</f>
+        <v>1944</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <f>4.32</f>
+        <v>4.32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1470.9</v>
+      </c>
+      <c r="C4">
+        <v>1013.4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.1000000000001364</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1.4649114456554582E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1469.8</v>
+      </c>
+      <c r="C5">
+        <v>1019.9</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000455</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>4.8888757517370172E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1468.1</v>
+      </c>
+      <c r="C6">
+        <v>1018.5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.8999999999998636</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5.3736789515777504E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1466.2</v>
+      </c>
+      <c r="C7">
+        <v>1020</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.9000000000000909</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000004547</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4.2382596932845568E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1464.3</v>
+      </c>
+      <c r="C8">
+        <v>1020.2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000455</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3.6141042913193609E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1463.1</v>
+      </c>
+      <c r="C9">
+        <v>1019.1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999091</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>6.7809168785918595E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1461.5</v>
+      </c>
+      <c r="C10">
+        <v>1021.7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.59999999999990905</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.79999999999995453</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2.2208341054204901E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>1460.9</v>
+      </c>
+      <c r="C11">
+        <v>1022.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.89999999999997726</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2.9868277005690425E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>1459.9</v>
+      </c>
+      <c r="C12">
+        <v>1023.4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>ABS(C13-C12)</f>
+        <v>4.5000000000001137</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1.0243102055182885E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>1460.9</v>
+      </c>
+      <c r="C13">
+        <v>1027.9000000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.70000000000004547</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.89999999999986358</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2.532066045606554E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>1460.2</v>
+      </c>
+      <c r="C14">
+        <v>1028.8</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.29999999999995453</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>7.8061981613749406E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>1460.5</v>
+      </c>
+      <c r="C15">
+        <v>1032.3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.79999999999995453</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>6.8988385878125617E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>1461.3</v>
+      </c>
+      <c r="C16">
+        <v>1035.3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000909</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>8.7373563530015359E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>1461.8</v>
+      </c>
+      <c r="C17">
+        <v>1039.2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.20000000000004547</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2.3999999999998636</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>5.3517557897345032E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>1461.6</v>
+      </c>
+      <c r="C18">
+        <v>1041.5999999999999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1.1000000000001364</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5.6000000000001364</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1.2681434326741837E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>1462.7</v>
+      </c>
+      <c r="C19">
+        <v>1047.2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3.3999999999998636</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4.7999999999999545</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1.3063925629715669E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>1466.1</v>
+      </c>
+      <c r="C20">
+        <v>1052</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2.3999999999998636</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.90000000000009095</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>5.6873337115229397E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>1463.7</v>
+      </c>
+      <c r="C21">
+        <v>1051.0999999999999</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.90000000000009095</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2.0000000000002021E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>1463.7</v>
+      </c>
+      <c r="C22">
+        <v>1052</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>4.5807610009664084E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>1464.2</v>
+      </c>
+      <c r="C23">
+        <v>1054</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999091</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999091</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1.3680046125788037E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>1468.8</v>
+      </c>
+      <c r="C24">
+        <v>1058.0999999999999</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2.3999999999998636</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>2.1999999999998181</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>7.2282085826380089E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>1466.4</v>
+      </c>
+      <c r="C25">
+        <v>1055.9000000000001</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.6999999999998181</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>6.7146326259225741E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>1468.1</v>
+      </c>
+      <c r="C26">
+        <v>1058.4000000000001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2.6999999999998181</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>8.1705032406539924E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>1470.6</v>
+      </c>
+      <c r="C27">
+        <v>1061.0999999999999</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.8000000000001819</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>5.2031302457269347E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>1472.1</v>
+      </c>
+      <c r="C28">
+        <v>1062.9000000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.20000000000004547</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.39999999999986358</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>9.934631574976217E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>1472.3</v>
+      </c>
+      <c r="C29">
+        <v>1063.3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.8999999999998636</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.59999999999990905</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>4.4207569647398484E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>1470.4</v>
+      </c>
+      <c r="C30">
+        <v>1062.7</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999091</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>9.7284206431400427E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>1474</v>
+      </c>
+      <c r="C31">
+        <v>1065.2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000455</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1.5617879269269136E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>1480.5</v>
+      </c>
+      <c r="C32">
+        <v>1067.9000000000001</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>6.2000000000000455</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>1.3932224595099948E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>64</v>
+      </c>
+      <c r="B33">
+        <v>1486.7</v>
+      </c>
+      <c r="C33">
+        <v>1066.9000000000001</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1.6000000000001364</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>4.1876472236723229E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>1485.1</v>
+      </c>
+      <c r="C34">
+        <v>1065.9000000000001</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.39999999999986358</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000455</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2.8104258512141882E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>1484.7</v>
+      </c>
+      <c r="C35">
+        <v>1064.7</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.29999999999995453</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>3.3991195455986521E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>1485</v>
+      </c>
+      <c r="C36">
+        <v>1063.2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.70000000000004547</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.29999999999995453</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>1.6899120994179351E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <v>1485.7</v>
+      </c>
+      <c r="C37">
+        <v>1062.9000000000001</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>1.8999999999998636</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>4.3588854383607286E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>74</v>
+      </c>
+      <c r="B38">
+        <v>1487.6</v>
+      </c>
+      <c r="C38">
+        <v>1063.4000000000001</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>2.6999999999998181</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.60000000000013642</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>6.1361947723909639E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>76</v>
+      </c>
+      <c r="B39">
+        <v>1484.9</v>
+      </c>
+      <c r="C39">
+        <v>1062.8</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>4.2999999999999545</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.90000000000009095</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>9.7463774445316342E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>78</v>
+      </c>
+      <c r="B40">
+        <v>1489.2</v>
+      </c>
+      <c r="C40">
+        <v>1063.7</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.29999999999995453</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.59999999999990905</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>1.490194736246546E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>80</v>
+      </c>
+      <c r="B41">
+        <v>1489.5</v>
+      </c>
+      <c r="C41">
+        <v>1064.3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000455</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.39999999999986358</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>6.0551822403405202E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>82</v>
+      </c>
+      <c r="B42">
+        <v>1492.2</v>
+      </c>
+      <c r="C42">
+        <v>1063.9000000000001</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>2.1000000000001364</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0.60000000000013642</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>4.8456169794580343E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>84</v>
+      </c>
+      <c r="B43">
+        <v>1490.1</v>
+      </c>
+      <c r="C43">
+        <v>1063.3</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.20000000000004547</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0.29999999999995453</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>8.0080586471370789E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>86</v>
+      </c>
+      <c r="B44">
+        <v>1490.3</v>
+      </c>
+      <c r="C44">
+        <v>1063</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>5.2999999999999545</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>1.1759430141424195E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>88</v>
+      </c>
+      <c r="B45">
+        <v>1495.6</v>
+      </c>
+      <c r="C45">
+        <v>1062.9000000000001</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="2">ABS(B46-B45)</f>
+        <v>1.8000000000001819</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="3">ABS(C46-C45)</f>
+        <v>1.2000000000000455</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45" si="4">SQRT(($L$2*D45/$J$2)^2+($L$3*E45/$J$3)^2)</f>
+        <v>4.8016251187351106E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>90</v>
+      </c>
+      <c r="B46">
+        <v>1497.4</v>
+      </c>
+      <c r="C46">
+        <v>1061.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47">
+        <f>AVERAGE(F1:F45)</f>
+        <v>6.7124963030253939E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <f>_xlfn.STDEV.P(F1:F45)</f>
+        <v>3.9332265684473315E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>